--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -633,27 +633,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 24064-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 24064-2019.xlsx", "A 24064-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 24064-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 24064-2019.png", "A 24064-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 24064-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 24064-2019.docx", "A 24064-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 24064-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 24064-2019.docx", "A 24064-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 24064-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 24064-2019.docx", "A 24064-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 24064-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 24064-2019.docx", "A 24064-2019")</f>
         <v/>
       </c>
     </row>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -719,27 +719,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 45025-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 45025-2018.xlsx", "A 45025-2018")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 45025-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 45025-2018.png", "A 45025-2018")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 45025-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 45025-2018.docx", "A 45025-2018")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 45025-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 45025-2018.docx", "A 45025-2018")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 45025-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 45025-2018.docx", "A 45025-2018")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 45025-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 45025-2018.docx", "A 45025-2018")</f>
         <v/>
       </c>
     </row>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -810,27 +810,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 48762-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 48762-2021.xlsx", "A 48762-2021")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 48762-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 48762-2021.png", "A 48762-2021")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 48762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 48762-2021.docx", "A 48762-2021")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 48762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 48762-2021.docx", "A 48762-2021")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 48762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 48762-2021.docx", "A 48762-2021")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 48762-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 48762-2021.docx", "A 48762-2021")</f>
         <v/>
       </c>
     </row>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -901,27 +901,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 16766-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 16766-2022.xlsx", "A 16766-2022")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 16766-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 16766-2022.png", "A 16766-2022")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 16766-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 16766-2022.docx", "A 16766-2022")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 16766-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 16766-2022.docx", "A 16766-2022")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 16766-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 16766-2022.docx", "A 16766-2022")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 16766-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 16766-2022.docx", "A 16766-2022")</f>
         <v/>
       </c>
     </row>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,27 +987,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 50431-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 50431-2022.xlsx", "A 50431-2022")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 50431-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 50431-2022.png", "A 50431-2022")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 50431-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 50431-2022.docx", "A 50431-2022")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 50431-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 50431-2022.docx", "A 50431-2022")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 50431-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 50431-2022.docx", "A 50431-2022")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 50431-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 50431-2022.docx", "A 50431-2022")</f>
         <v/>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1072,27 +1072,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 56625-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 56625-2018.xlsx", "A 56625-2018")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 56625-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 56625-2018.png", "A 56625-2018")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 56625-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 56625-2018.docx", "A 56625-2018")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 56625-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 56625-2018.docx", "A 56625-2018")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 56625-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 56625-2018.docx", "A 56625-2018")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 56625-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 56625-2018.docx", "A 56625-2018")</f>
         <v/>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1157,27 +1157,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 66923-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 66923-2018.xlsx", "A 66923-2018")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 66923-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 66923-2018.png", "A 66923-2018")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 66923-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 66923-2018.docx", "A 66923-2018")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 66923-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 66923-2018.docx", "A 66923-2018")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 66923-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 66923-2018.docx", "A 66923-2018")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 66923-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 66923-2018.docx", "A 66923-2018")</f>
         <v/>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1242,27 +1242,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 1254-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 1254-2019.xlsx", "A 1254-2019")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 1254-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 1254-2019.png", "A 1254-2019")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 1254-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 1254-2019.docx", "A 1254-2019")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 1254-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 1254-2019.docx", "A 1254-2019")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 1254-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 1254-2019.docx", "A 1254-2019")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 1254-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 1254-2019.docx", "A 1254-2019")</f>
         <v/>
       </c>
     </row>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1327,27 +1327,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 23681-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 23681-2019.xlsx", "A 23681-2019")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 23681-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 23681-2019.png", "A 23681-2019")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 23681-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 23681-2019.docx", "A 23681-2019")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 23681-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 23681-2019.docx", "A 23681-2019")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 23681-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 23681-2019.docx", "A 23681-2019")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 23681-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 23681-2019.docx", "A 23681-2019")</f>
         <v/>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1412,27 +1412,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 10040-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 10040-2020.xlsx", "A 10040-2020")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 10040-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 10040-2020.png", "A 10040-2020")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 10040-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 10040-2020.docx", "A 10040-2020")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 10040-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 10040-2020.docx", "A 10040-2020")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 10040-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 10040-2020.docx", "A 10040-2020")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 10040-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 10040-2020.docx", "A 10040-2020")</f>
         <v/>
       </c>
     </row>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1497,27 +1497,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 35546-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 35546-2020.xlsx", "A 35546-2020")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 35546-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 35546-2020.png", "A 35546-2020")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 35546-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 35546-2020.docx", "A 35546-2020")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 35546-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 35546-2020.docx", "A 35546-2020")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 35546-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 35546-2020.docx", "A 35546-2020")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 35546-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 35546-2020.docx", "A 35546-2020")</f>
         <v/>
       </c>
     </row>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1582,27 +1582,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 59466-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 59466-2020.xlsx", "A 59466-2020")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 59466-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 59466-2020.png", "A 59466-2020")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 59466-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 59466-2020.docx", "A 59466-2020")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 59466-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 59466-2020.docx", "A 59466-2020")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 59466-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 59466-2020.docx", "A 59466-2020")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 59466-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 59466-2020.docx", "A 59466-2020")</f>
         <v/>
       </c>
     </row>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1667,27 +1667,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 4335-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 4335-2021.xlsx", "A 4335-2021")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 4335-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 4335-2021.png", "A 4335-2021")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 4335-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 4335-2021.docx", "A 4335-2021")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 4335-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 4335-2021.docx", "A 4335-2021")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 4335-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 4335-2021.docx", "A 4335-2021")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 4335-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 4335-2021.docx", "A 4335-2021")</f>
         <v/>
       </c>
     </row>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1752,27 +1752,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 24660-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 24660-2021.xlsx", "A 24660-2021")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 24660-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 24660-2021.png", "A 24660-2021")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 24660-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 24660-2021.docx", "A 24660-2021")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 24660-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 24660-2021.docx", "A 24660-2021")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 24660-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 24660-2021.docx", "A 24660-2021")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 24660-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 24660-2021.docx", "A 24660-2021")</f>
         <v/>
       </c>
     </row>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1837,27 +1837,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 46893-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 46893-2021.xlsx", "A 46893-2021")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 46893-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 46893-2021.png", "A 46893-2021")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 46893-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 46893-2021.docx", "A 46893-2021")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 46893-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 46893-2021.docx", "A 46893-2021")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 46893-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 46893-2021.docx", "A 46893-2021")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 46893-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 46893-2021.docx", "A 46893-2021")</f>
         <v/>
       </c>
     </row>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1922,27 +1922,27 @@
         </is>
       </c>
       <c r="S17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 48327-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 48327-2021.xlsx", "A 48327-2021")</f>
         <v/>
       </c>
       <c r="T17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 48327-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 48327-2021.png", "A 48327-2021")</f>
         <v/>
       </c>
       <c r="V17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 48327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 48327-2021.docx", "A 48327-2021")</f>
         <v/>
       </c>
       <c r="W17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 48327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 48327-2021.docx", "A 48327-2021")</f>
         <v/>
       </c>
       <c r="X17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 48327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 48327-2021.docx", "A 48327-2021")</f>
         <v/>
       </c>
       <c r="Y17">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 48327-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 48327-2021.docx", "A 48327-2021")</f>
         <v/>
       </c>
     </row>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2007,27 +2007,27 @@
         </is>
       </c>
       <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 4394-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 4394-2022.xlsx", "A 4394-2022")</f>
         <v/>
       </c>
       <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 4394-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 4394-2022.png", "A 4394-2022")</f>
         <v/>
       </c>
       <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 4394-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 4394-2022.docx", "A 4394-2022")</f>
         <v/>
       </c>
       <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 4394-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 4394-2022.docx", "A 4394-2022")</f>
         <v/>
       </c>
       <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 4394-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 4394-2022.docx", "A 4394-2022")</f>
         <v/>
       </c>
       <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 4394-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 4394-2022.docx", "A 4394-2022")</f>
         <v/>
       </c>
     </row>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2097,27 +2097,27 @@
         </is>
       </c>
       <c r="S19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 29742-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 29742-2022.xlsx", "A 29742-2022")</f>
         <v/>
       </c>
       <c r="T19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 29742-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 29742-2022.png", "A 29742-2022")</f>
         <v/>
       </c>
       <c r="V19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 29742-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 29742-2022.docx", "A 29742-2022")</f>
         <v/>
       </c>
       <c r="W19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 29742-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 29742-2022.docx", "A 29742-2022")</f>
         <v/>
       </c>
       <c r="X19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 29742-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 29742-2022.docx", "A 29742-2022")</f>
         <v/>
       </c>
       <c r="Y19">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 29742-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 29742-2022.docx", "A 29742-2022")</f>
         <v/>
       </c>
     </row>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2182,27 +2182,27 @@
         </is>
       </c>
       <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 30596-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 30596-2022.xlsx", "A 30596-2022")</f>
         <v/>
       </c>
       <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 30596-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 30596-2022.png", "A 30596-2022")</f>
         <v/>
       </c>
       <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 30596-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 30596-2022.docx", "A 30596-2022")</f>
         <v/>
       </c>
       <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 30596-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 30596-2022.docx", "A 30596-2022")</f>
         <v/>
       </c>
       <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 30596-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 30596-2022.docx", "A 30596-2022")</f>
         <v/>
       </c>
       <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 30596-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 30596-2022.docx", "A 30596-2022")</f>
         <v/>
       </c>
     </row>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2272,27 +2272,27 @@
         </is>
       </c>
       <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 36885-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 36885-2022.xlsx", "A 36885-2022")</f>
         <v/>
       </c>
       <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 36885-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 36885-2022.png", "A 36885-2022")</f>
         <v/>
       </c>
       <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 36885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 36885-2022.docx", "A 36885-2022")</f>
         <v/>
       </c>
       <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 36885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 36885-2022.docx", "A 36885-2022")</f>
         <v/>
       </c>
       <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 36885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 36885-2022.docx", "A 36885-2022")</f>
         <v/>
       </c>
       <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 36885-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 36885-2022.docx", "A 36885-2022")</f>
         <v/>
       </c>
     </row>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2357,27 +2357,27 @@
         </is>
       </c>
       <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 38477-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 38477-2022.xlsx", "A 38477-2022")</f>
         <v/>
       </c>
       <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 38477-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 38477-2022.png", "A 38477-2022")</f>
         <v/>
       </c>
       <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 38477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 38477-2022.docx", "A 38477-2022")</f>
         <v/>
       </c>
       <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 38477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 38477-2022.docx", "A 38477-2022")</f>
         <v/>
       </c>
       <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 38477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 38477-2022.docx", "A 38477-2022")</f>
         <v/>
       </c>
       <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 38477-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 38477-2022.docx", "A 38477-2022")</f>
         <v/>
       </c>
     </row>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2442,27 +2442,27 @@
         </is>
       </c>
       <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 54957-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 54957-2022.xlsx", "A 54957-2022")</f>
         <v/>
       </c>
       <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 54957-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 54957-2022.png", "A 54957-2022")</f>
         <v/>
       </c>
       <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 54957-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 54957-2022.docx", "A 54957-2022")</f>
         <v/>
       </c>
       <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 54957-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 54957-2022.docx", "A 54957-2022")</f>
         <v/>
       </c>
       <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 54957-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 54957-2022.docx", "A 54957-2022")</f>
         <v/>
       </c>
       <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 54957-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 54957-2022.docx", "A 54957-2022")</f>
         <v/>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2532,27 +2532,27 @@
         </is>
       </c>
       <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 56794-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 56794-2022.xlsx", "A 56794-2022")</f>
         <v/>
       </c>
       <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 56794-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 56794-2022.png", "A 56794-2022")</f>
         <v/>
       </c>
       <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 56794-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 56794-2022.docx", "A 56794-2022")</f>
         <v/>
       </c>
       <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 56794-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 56794-2022.docx", "A 56794-2022")</f>
         <v/>
       </c>
       <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 56794-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 56794-2022.docx", "A 56794-2022")</f>
         <v/>
       </c>
       <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 56794-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 56794-2022.docx", "A 56794-2022")</f>
         <v/>
       </c>
     </row>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2617,27 +2617,27 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 1823-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 1823-2023.xlsx", "A 1823-2023")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 1823-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 1823-2023.png", "A 1823-2023")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 1823-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 1823-2023.docx", "A 1823-2023")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 1823-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 1823-2023.docx", "A 1823-2023")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 1823-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 1823-2023.docx", "A 1823-2023")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 1823-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 1823-2023.docx", "A 1823-2023")</f>
         <v/>
       </c>
     </row>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2702,27 +2702,27 @@
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 15109-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/artfynd/A 15109-2023.xlsx", "A 15109-2023")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 15109-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/kartor/A 15109-2023.png", "A 15109-2023")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 15109-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomål/A 15109-2023.docx", "A 15109-2023")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 15109-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/klagomålsmail/A 15109-2023.docx", "A 15109-2023")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 15109-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsyn/A 15109-2023.docx", "A 15109-2023")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 15109-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SAFFLE/tillsynsmail/A 15109-2023.docx", "A 15109-2023")</f>
         <v/>
       </c>
     </row>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -31007,7 +31007,7 @@
         <v>44509</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -31064,7 +31064,7 @@
         <v>44509</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -31121,7 +31121,7 @@
         <v>44509</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -31178,7 +31178,7 @@
         <v>44509</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -31240,7 +31240,7 @@
         <v>44511</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -31297,7 +31297,7 @@
         <v>44512</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -31354,7 +31354,7 @@
         <v>44518</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -31411,7 +31411,7 @@
         <v>44523</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -31468,7 +31468,7 @@
         <v>44524</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -31525,7 +31525,7 @@
         <v>44526</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -31582,7 +31582,7 @@
         <v>44538</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -31639,7 +31639,7 @@
         <v>44538</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -31696,7 +31696,7 @@
         <v>44546</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -31753,7 +31753,7 @@
         <v>44550</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -31810,7 +31810,7 @@
         <v>44550</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -31867,7 +31867,7 @@
         <v>44550</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -31924,7 +31924,7 @@
         <v>44550</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -31981,7 +31981,7 @@
         <v>44550</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -32038,7 +32038,7 @@
         <v>44550</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -32095,7 +32095,7 @@
         <v>44552</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -32157,7 +32157,7 @@
         <v>44552</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -32214,7 +32214,7 @@
         <v>44557</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -32271,7 +32271,7 @@
         <v>44564</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -32328,7 +32328,7 @@
         <v>44564</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -32385,7 +32385,7 @@
         <v>44574</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -32442,7 +32442,7 @@
         <v>44580</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -32499,7 +32499,7 @@
         <v>44581</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -32556,7 +32556,7 @@
         <v>44581</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -32613,7 +32613,7 @@
         <v>44587</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -32670,7 +32670,7 @@
         <v>44596</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -32727,7 +32727,7 @@
         <v>44606</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -32784,7 +32784,7 @@
         <v>44607</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -32841,7 +32841,7 @@
         <v>44607</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -32898,7 +32898,7 @@
         <v>44607</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -32955,7 +32955,7 @@
         <v>44608</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -33012,7 +33012,7 @@
         <v>44610</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -33069,7 +33069,7 @@
         <v>44615</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -33126,7 +33126,7 @@
         <v>44616</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -33183,7 +33183,7 @@
         <v>44623</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -33240,7 +33240,7 @@
         <v>44627</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -33297,7 +33297,7 @@
         <v>44629</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -33354,7 +33354,7 @@
         <v>44629</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -33411,7 +33411,7 @@
         <v>44629</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -33468,7 +33468,7 @@
         <v>44629</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -33525,7 +33525,7 @@
         <v>44629</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -33582,7 +33582,7 @@
         <v>44634</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -33639,7 +33639,7 @@
         <v>44641</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -33696,7 +33696,7 @@
         <v>44644</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>
@@ -33753,7 +33753,7 @@
         <v>44649</v>
       </c>
       <c r="C568" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D568" t="inlineStr">
         <is>
@@ -33810,7 +33810,7 @@
         <v>44649</v>
       </c>
       <c r="C569" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D569" t="inlineStr">
         <is>
@@ -33867,7 +33867,7 @@
         <v>44659</v>
       </c>
       <c r="C570" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D570" t="inlineStr">
         <is>
@@ -33924,7 +33924,7 @@
         <v>44659</v>
       </c>
       <c r="C571" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D571" t="inlineStr">
         <is>
@@ -33986,7 +33986,7 @@
         <v>44663</v>
       </c>
       <c r="C572" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D572" t="inlineStr">
         <is>
@@ -34043,7 +34043,7 @@
         <v>44665</v>
       </c>
       <c r="C573" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D573" t="inlineStr">
         <is>
@@ -34100,7 +34100,7 @@
         <v>44671</v>
       </c>
       <c r="C574" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D574" t="inlineStr">
         <is>
@@ -34157,7 +34157,7 @@
         <v>44671</v>
       </c>
       <c r="C575" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D575" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44676</v>
       </c>
       <c r="C576" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D576" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>44679</v>
       </c>
       <c r="C577" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D577" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>44679</v>
       </c>
       <c r="C578" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D578" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>44686</v>
       </c>
       <c r="C579" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D579" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>44698</v>
       </c>
       <c r="C580" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D580" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>44699</v>
       </c>
       <c r="C581" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D581" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>44704</v>
       </c>
       <c r="C582" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D582" t="inlineStr">
         <is>
@@ -34618,7 +34618,7 @@
         <v>44734</v>
       </c>
       <c r="C583" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D583" t="inlineStr">
         <is>
@@ -34675,7 +34675,7 @@
         <v>44735</v>
       </c>
       <c r="C584" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D584" t="inlineStr">
         <is>
@@ -34732,7 +34732,7 @@
         <v>44745</v>
       </c>
       <c r="C585" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D585" t="inlineStr">
         <is>
@@ -34789,7 +34789,7 @@
         <v>44750</v>
       </c>
       <c r="C586" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D586" t="inlineStr">
         <is>
@@ -34846,7 +34846,7 @@
         <v>44759</v>
       </c>
       <c r="C587" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D587" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>44762</v>
       </c>
       <c r="C588" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D588" t="inlineStr">
         <is>
@@ -34960,7 +34960,7 @@
         <v>44764</v>
       </c>
       <c r="C589" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D589" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>44776</v>
       </c>
       <c r="C590" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D590" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>44785</v>
       </c>
       <c r="C591" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D591" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44787</v>
       </c>
       <c r="C592" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D592" t="inlineStr">
         <is>
@@ -35188,7 +35188,7 @@
         <v>44787</v>
       </c>
       <c r="C593" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D593" t="inlineStr">
         <is>
@@ -35245,7 +35245,7 @@
         <v>44790</v>
       </c>
       <c r="C594" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D594" t="inlineStr">
         <is>
@@ -35302,7 +35302,7 @@
         <v>44802</v>
       </c>
       <c r="C595" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D595" t="inlineStr">
         <is>
@@ -35359,7 +35359,7 @@
         <v>44806</v>
       </c>
       <c r="C596" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D596" t="inlineStr">
         <is>
@@ -35416,7 +35416,7 @@
         <v>44806</v>
       </c>
       <c r="C597" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D597" t="inlineStr">
         <is>
@@ -35473,7 +35473,7 @@
         <v>44810</v>
       </c>
       <c r="C598" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D598" t="inlineStr">
         <is>
@@ -35530,7 +35530,7 @@
         <v>44813</v>
       </c>
       <c r="C599" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D599" t="inlineStr">
         <is>
@@ -35587,7 +35587,7 @@
         <v>44813</v>
       </c>
       <c r="C600" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D600" t="inlineStr">
         <is>
@@ -35644,7 +35644,7 @@
         <v>44819</v>
       </c>
       <c r="C601" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D601" t="inlineStr">
         <is>
@@ -35701,7 +35701,7 @@
         <v>44819</v>
       </c>
       <c r="C602" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D602" t="inlineStr">
         <is>
@@ -35758,7 +35758,7 @@
         <v>44819</v>
       </c>
       <c r="C603" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D603" t="inlineStr">
         <is>
@@ -35815,7 +35815,7 @@
         <v>44820</v>
       </c>
       <c r="C604" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D604" t="inlineStr">
         <is>
@@ -35872,7 +35872,7 @@
         <v>44823</v>
       </c>
       <c r="C605" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D605" t="inlineStr">
         <is>
@@ -35929,7 +35929,7 @@
         <v>44824</v>
       </c>
       <c r="C606" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D606" t="inlineStr">
         <is>
@@ -35986,7 +35986,7 @@
         <v>44826</v>
       </c>
       <c r="C607" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D607" t="inlineStr">
         <is>
@@ -36043,7 +36043,7 @@
         <v>44827</v>
       </c>
       <c r="C608" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D608" t="inlineStr">
         <is>
@@ -36105,7 +36105,7 @@
         <v>44830</v>
       </c>
       <c r="C609" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D609" t="inlineStr">
         <is>
@@ -36162,7 +36162,7 @@
         <v>44830</v>
       </c>
       <c r="C610" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D610" t="inlineStr">
         <is>
@@ -36219,7 +36219,7 @@
         <v>44831</v>
       </c>
       <c r="C611" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D611" t="inlineStr">
         <is>
@@ -36281,7 +36281,7 @@
         <v>44840</v>
       </c>
       <c r="C612" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D612" t="inlineStr">
         <is>
@@ -36338,7 +36338,7 @@
         <v>44846</v>
       </c>
       <c r="C613" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D613" t="inlineStr">
         <is>
@@ -36400,7 +36400,7 @@
         <v>44846</v>
       </c>
       <c r="C614" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D614" t="inlineStr">
         <is>
@@ -36457,7 +36457,7 @@
         <v>44846</v>
       </c>
       <c r="C615" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D615" t="inlineStr">
         <is>
@@ -36519,7 +36519,7 @@
         <v>44852</v>
       </c>
       <c r="C616" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D616" t="inlineStr">
         <is>
@@ -36576,7 +36576,7 @@
         <v>44858</v>
       </c>
       <c r="C617" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D617" t="inlineStr">
         <is>
@@ -36633,7 +36633,7 @@
         <v>44861</v>
       </c>
       <c r="C618" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D618" t="inlineStr">
         <is>
@@ -36690,7 +36690,7 @@
         <v>44861</v>
       </c>
       <c r="C619" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D619" t="inlineStr">
         <is>
@@ -36747,7 +36747,7 @@
         <v>44862</v>
       </c>
       <c r="C620" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D620" t="inlineStr">
         <is>
@@ -36804,7 +36804,7 @@
         <v>44866</v>
       </c>
       <c r="C621" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D621" t="inlineStr">
         <is>
@@ -36861,7 +36861,7 @@
         <v>44867</v>
       </c>
       <c r="C622" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D622" t="inlineStr">
         <is>
@@ -36923,7 +36923,7 @@
         <v>44868</v>
       </c>
       <c r="C623" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D623" t="inlineStr">
         <is>
@@ -36980,7 +36980,7 @@
         <v>44868</v>
       </c>
       <c r="C624" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D624" t="inlineStr">
         <is>
@@ -37037,7 +37037,7 @@
         <v>44872</v>
       </c>
       <c r="C625" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D625" t="inlineStr">
         <is>
@@ -37094,7 +37094,7 @@
         <v>44873</v>
       </c>
       <c r="C626" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D626" t="inlineStr">
         <is>
@@ -37151,7 +37151,7 @@
         <v>44875</v>
       </c>
       <c r="C627" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D627" t="inlineStr">
         <is>
@@ -37208,7 +37208,7 @@
         <v>44876</v>
       </c>
       <c r="C628" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D628" t="inlineStr">
         <is>
@@ -37265,7 +37265,7 @@
         <v>44879</v>
       </c>
       <c r="C629" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D629" t="inlineStr">
         <is>
@@ -37322,7 +37322,7 @@
         <v>44880</v>
       </c>
       <c r="C630" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D630" t="inlineStr">
         <is>
@@ -37379,7 +37379,7 @@
         <v>44881</v>
       </c>
       <c r="C631" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D631" t="inlineStr">
         <is>
@@ -37436,7 +37436,7 @@
         <v>44881</v>
       </c>
       <c r="C632" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D632" t="inlineStr">
         <is>
@@ -37493,7 +37493,7 @@
         <v>44881</v>
       </c>
       <c r="C633" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D633" t="inlineStr">
         <is>
@@ -37550,7 +37550,7 @@
         <v>44881</v>
       </c>
       <c r="C634" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D634" t="inlineStr">
         <is>
@@ -37607,7 +37607,7 @@
         <v>44881</v>
       </c>
       <c r="C635" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D635" t="inlineStr">
         <is>
@@ -37664,7 +37664,7 @@
         <v>44885</v>
       </c>
       <c r="C636" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D636" t="inlineStr">
         <is>
@@ -37721,7 +37721,7 @@
         <v>44886</v>
       </c>
       <c r="C637" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D637" t="inlineStr">
         <is>
@@ -37778,7 +37778,7 @@
         <v>44894</v>
       </c>
       <c r="C638" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D638" t="inlineStr">
         <is>
@@ -37840,7 +37840,7 @@
         <v>44896</v>
       </c>
       <c r="C639" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D639" t="inlineStr">
         <is>
@@ -37897,7 +37897,7 @@
         <v>44900</v>
       </c>
       <c r="C640" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D640" t="inlineStr">
         <is>
@@ -37954,7 +37954,7 @@
         <v>44900</v>
       </c>
       <c r="C641" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D641" t="inlineStr">
         <is>
@@ -38011,7 +38011,7 @@
         <v>44900</v>
       </c>
       <c r="C642" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D642" t="inlineStr">
         <is>
@@ -38068,7 +38068,7 @@
         <v>44900</v>
       </c>
       <c r="C643" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D643" t="inlineStr">
         <is>
@@ -38125,7 +38125,7 @@
         <v>44911</v>
       </c>
       <c r="C644" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D644" t="inlineStr">
         <is>
@@ -38182,7 +38182,7 @@
         <v>44917</v>
       </c>
       <c r="C645" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D645" t="inlineStr">
         <is>
@@ -38239,7 +38239,7 @@
         <v>44921</v>
       </c>
       <c r="C646" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D646" t="inlineStr">
         <is>
@@ -38296,7 +38296,7 @@
         <v>44936</v>
       </c>
       <c r="C647" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D647" t="inlineStr">
         <is>
@@ -38353,7 +38353,7 @@
         <v>44936</v>
       </c>
       <c r="C648" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D648" t="inlineStr">
         <is>
@@ -38410,7 +38410,7 @@
         <v>44937</v>
       </c>
       <c r="C649" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D649" t="inlineStr">
         <is>
@@ -38467,7 +38467,7 @@
         <v>44943</v>
       </c>
       <c r="C650" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D650" t="inlineStr">
         <is>
@@ -38524,7 +38524,7 @@
         <v>44943</v>
       </c>
       <c r="C651" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D651" t="inlineStr">
         <is>
@@ -38586,7 +38586,7 @@
         <v>44945</v>
       </c>
       <c r="C652" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D652" t="inlineStr">
         <is>
@@ -38643,7 +38643,7 @@
         <v>44945</v>
       </c>
       <c r="C653" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D653" t="inlineStr">
         <is>
@@ -38700,7 +38700,7 @@
         <v>44946</v>
       </c>
       <c r="C654" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D654" t="inlineStr">
         <is>
@@ -38757,7 +38757,7 @@
         <v>44949</v>
       </c>
       <c r="C655" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D655" t="inlineStr">
         <is>
@@ -38814,7 +38814,7 @@
         <v>44952</v>
       </c>
       <c r="C656" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D656" t="inlineStr">
         <is>
@@ -38871,7 +38871,7 @@
         <v>44952</v>
       </c>
       <c r="C657" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D657" t="inlineStr">
         <is>
@@ -38928,7 +38928,7 @@
         <v>44952</v>
       </c>
       <c r="C658" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D658" t="inlineStr">
         <is>
@@ -38985,7 +38985,7 @@
         <v>44952</v>
       </c>
       <c r="C659" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D659" t="inlineStr">
         <is>
@@ -39042,7 +39042,7 @@
         <v>44959</v>
       </c>
       <c r="C660" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D660" t="inlineStr">
         <is>
@@ -39099,7 +39099,7 @@
         <v>44970</v>
       </c>
       <c r="C661" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D661" t="inlineStr">
         <is>
@@ -39161,7 +39161,7 @@
         <v>44973</v>
       </c>
       <c r="C662" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D662" t="inlineStr">
         <is>
@@ -39218,7 +39218,7 @@
         <v>44976</v>
       </c>
       <c r="C663" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D663" t="inlineStr">
         <is>
@@ -39275,7 +39275,7 @@
         <v>44977</v>
       </c>
       <c r="C664" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D664" t="inlineStr">
         <is>
@@ -39332,7 +39332,7 @@
         <v>44977</v>
       </c>
       <c r="C665" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D665" t="inlineStr">
         <is>
@@ -39389,7 +39389,7 @@
         <v>44980</v>
       </c>
       <c r="C666" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D666" t="inlineStr">
         <is>
@@ -39446,7 +39446,7 @@
         <v>44980</v>
       </c>
       <c r="C667" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D667" t="inlineStr">
         <is>
@@ -39503,7 +39503,7 @@
         <v>44980</v>
       </c>
       <c r="C668" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D668" t="inlineStr">
         <is>
@@ -39560,7 +39560,7 @@
         <v>44980</v>
       </c>
       <c r="C669" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D669" t="inlineStr">
         <is>
@@ -39617,7 +39617,7 @@
         <v>44985</v>
       </c>
       <c r="C670" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D670" t="inlineStr">
         <is>
@@ -39674,7 +39674,7 @@
         <v>44993</v>
       </c>
       <c r="C671" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D671" t="inlineStr">
         <is>
@@ -39731,7 +39731,7 @@
         <v>44994</v>
       </c>
       <c r="C672" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D672" t="inlineStr">
         <is>
@@ -39788,7 +39788,7 @@
         <v>44994</v>
       </c>
       <c r="C673" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D673" t="inlineStr">
         <is>
@@ -39845,7 +39845,7 @@
         <v>44998</v>
       </c>
       <c r="C674" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D674" t="inlineStr">
         <is>
@@ -39902,7 +39902,7 @@
         <v>44999</v>
       </c>
       <c r="C675" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D675" t="inlineStr">
         <is>
@@ -39964,7 +39964,7 @@
         <v>44999</v>
       </c>
       <c r="C676" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D676" t="inlineStr">
         <is>
@@ -40021,7 +40021,7 @@
         <v>45000</v>
       </c>
       <c r="C677" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D677" t="inlineStr">
         <is>
@@ -40078,7 +40078,7 @@
         <v>45005</v>
       </c>
       <c r="C678" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D678" t="inlineStr">
         <is>
@@ -40135,7 +40135,7 @@
         <v>45009</v>
       </c>
       <c r="C679" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D679" t="inlineStr">
         <is>
@@ -40192,7 +40192,7 @@
         <v>45012</v>
       </c>
       <c r="C680" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D680" t="inlineStr">
         <is>
@@ -40249,7 +40249,7 @@
         <v>45012</v>
       </c>
       <c r="C681" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D681" t="inlineStr">
         <is>
@@ -40306,7 +40306,7 @@
         <v>45012</v>
       </c>
       <c r="C682" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D682" t="inlineStr">
         <is>
@@ -40363,7 +40363,7 @@
         <v>45025</v>
       </c>
       <c r="C683" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D683" t="inlineStr">
         <is>
@@ -40420,7 +40420,7 @@
         <v>45029</v>
       </c>
       <c r="C684" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D684" t="inlineStr">
         <is>
@@ -40477,7 +40477,7 @@
         <v>45029</v>
       </c>
       <c r="C685" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D685" t="inlineStr">
         <is>
@@ -40534,7 +40534,7 @@
         <v>45033</v>
       </c>
       <c r="C686" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D686" t="inlineStr">
         <is>
@@ -40591,7 +40591,7 @@
         <v>45033</v>
       </c>
       <c r="C687" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D687" t="inlineStr">
         <is>
@@ -40648,7 +40648,7 @@
         <v>45033</v>
       </c>
       <c r="C688" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D688" t="inlineStr">
         <is>
@@ -40705,7 +40705,7 @@
         <v>45035</v>
       </c>
       <c r="C689" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D689" t="inlineStr">
         <is>
@@ -40762,7 +40762,7 @@
         <v>45037</v>
       </c>
       <c r="C690" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D690" t="inlineStr">
         <is>
@@ -40819,7 +40819,7 @@
         <v>45040</v>
       </c>
       <c r="C691" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D691" t="inlineStr">
         <is>
@@ -40876,7 +40876,7 @@
         <v>45040</v>
       </c>
       <c r="C692" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D692" t="inlineStr">
         <is>
@@ -40933,7 +40933,7 @@
         <v>45040</v>
       </c>
       <c r="C693" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D693" t="inlineStr">
         <is>
@@ -40990,7 +40990,7 @@
         <v>45040</v>
       </c>
       <c r="C694" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D694" t="inlineStr">
         <is>
@@ -41047,7 +41047,7 @@
         <v>45040</v>
       </c>
       <c r="C695" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D695" t="inlineStr">
         <is>
@@ -41104,7 +41104,7 @@
         <v>45041</v>
       </c>
       <c r="C696" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D696" t="inlineStr">
         <is>
@@ -41161,7 +41161,7 @@
         <v>45044</v>
       </c>
       <c r="C697" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D697" t="inlineStr">
         <is>
@@ -41218,7 +41218,7 @@
         <v>45050</v>
       </c>
       <c r="C698" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D698" t="inlineStr">
         <is>
@@ -41275,7 +41275,7 @@
         <v>45050</v>
       </c>
       <c r="C699" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D699" t="inlineStr">
         <is>
@@ -41332,7 +41332,7 @@
         <v>45050</v>
       </c>
       <c r="C700" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D700" t="inlineStr">
         <is>
@@ -41389,7 +41389,7 @@
         <v>45055</v>
       </c>
       <c r="C701" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D701" t="inlineStr">
         <is>
@@ -41451,7 +41451,7 @@
         <v>45056</v>
       </c>
       <c r="C702" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D702" t="inlineStr">
         <is>
@@ -41508,7 +41508,7 @@
         <v>45057</v>
       </c>
       <c r="C703" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D703" t="inlineStr">
         <is>
@@ -41565,7 +41565,7 @@
         <v>45063</v>
       </c>
       <c r="C704" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D704" t="inlineStr">
         <is>
@@ -41622,7 +41622,7 @@
         <v>45063</v>
       </c>
       <c r="C705" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D705" t="inlineStr">
         <is>
@@ -41679,7 +41679,7 @@
         <v>45065</v>
       </c>
       <c r="C706" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D706" t="inlineStr">
         <is>
@@ -41736,7 +41736,7 @@
         <v>45065</v>
       </c>
       <c r="C707" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D707" t="inlineStr">
         <is>
@@ -41793,7 +41793,7 @@
         <v>45068</v>
       </c>
       <c r="C708" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D708" t="inlineStr">
         <is>
@@ -41850,7 +41850,7 @@
         <v>45068</v>
       </c>
       <c r="C709" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D709" t="inlineStr">
         <is>
@@ -41907,7 +41907,7 @@
         <v>45072</v>
       </c>
       <c r="C710" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D710" t="inlineStr">
         <is>
@@ -41969,7 +41969,7 @@
         <v>45075</v>
       </c>
       <c r="C711" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D711" t="inlineStr">
         <is>
@@ -42026,7 +42026,7 @@
         <v>45076</v>
       </c>
       <c r="C712" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D712" t="inlineStr">
         <is>
@@ -42083,7 +42083,7 @@
         <v>45076</v>
       </c>
       <c r="C713" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D713" t="inlineStr">
         <is>
@@ -42140,7 +42140,7 @@
         <v>45078</v>
       </c>
       <c r="C714" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D714" t="inlineStr">
         <is>
@@ -42197,7 +42197,7 @@
         <v>45078</v>
       </c>
       <c r="C715" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D715" t="inlineStr">
         <is>
@@ -42254,7 +42254,7 @@
         <v>45079</v>
       </c>
       <c r="C716" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D716" t="inlineStr">
         <is>
@@ -42311,7 +42311,7 @@
         <v>45081</v>
       </c>
       <c r="C717" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D717" t="inlineStr">
         <is>
@@ -42368,7 +42368,7 @@
         <v>45082</v>
       </c>
       <c r="C718" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D718" t="inlineStr">
         <is>
@@ -42425,7 +42425,7 @@
         <v>45082</v>
       </c>
       <c r="C719" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D719" t="inlineStr">
         <is>
@@ -42482,7 +42482,7 @@
         <v>45083</v>
       </c>
       <c r="C720" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D720" t="inlineStr">
         <is>
@@ -42539,7 +42539,7 @@
         <v>45085</v>
       </c>
       <c r="C721" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D721" t="inlineStr">
         <is>
@@ -42596,7 +42596,7 @@
         <v>45085</v>
       </c>
       <c r="C722" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D722" t="inlineStr">
         <is>
@@ -42653,7 +42653,7 @@
         <v>45092</v>
       </c>
       <c r="C723" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D723" t="inlineStr">
         <is>
@@ -42710,7 +42710,7 @@
         <v>45093</v>
       </c>
       <c r="C724" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D724" t="inlineStr">
         <is>
@@ -42772,7 +42772,7 @@
         <v>45098</v>
       </c>
       <c r="C725" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D725" t="inlineStr">
         <is>
@@ -42829,7 +42829,7 @@
         <v>45098</v>
       </c>
       <c r="C726" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D726" t="inlineStr">
         <is>
@@ -42886,7 +42886,7 @@
         <v>45106</v>
       </c>
       <c r="C727" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D727" t="inlineStr">
         <is>
@@ -42943,7 +42943,7 @@
         <v>45107</v>
       </c>
       <c r="C728" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D728" t="inlineStr">
         <is>
@@ -43000,7 +43000,7 @@
         <v>45107</v>
       </c>
       <c r="C729" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D729" t="inlineStr">
         <is>
@@ -43057,7 +43057,7 @@
         <v>45107</v>
       </c>
       <c r="C730" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D730" t="inlineStr">
         <is>
@@ -43114,7 +43114,7 @@
         <v>45107</v>
       </c>
       <c r="C731" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D731" t="inlineStr">
         <is>
@@ -43171,7 +43171,7 @@
         <v>45107</v>
       </c>
       <c r="C732" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D732" t="inlineStr">
         <is>
@@ -43228,7 +43228,7 @@
         <v>45119</v>
       </c>
       <c r="C733" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D733" t="inlineStr">
         <is>
@@ -43285,7 +43285,7 @@
         <v>45119</v>
       </c>
       <c r="C734" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D734" t="inlineStr">
         <is>
@@ -43342,7 +43342,7 @@
         <v>45120</v>
       </c>
       <c r="C735" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D735" t="inlineStr">
         <is>
@@ -43399,7 +43399,7 @@
         <v>45127</v>
       </c>
       <c r="C736" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D736" t="inlineStr">
         <is>
@@ -43456,7 +43456,7 @@
         <v>45137</v>
       </c>
       <c r="C737" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D737" t="inlineStr">
         <is>
@@ -43513,7 +43513,7 @@
         <v>45141</v>
       </c>
       <c r="C738" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D738" t="inlineStr">
         <is>
@@ -43570,7 +43570,7 @@
         <v>45146</v>
       </c>
       <c r="C739" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D739" t="inlineStr">
         <is>
@@ -43627,7 +43627,7 @@
         <v>45146</v>
       </c>
       <c r="C740" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D740" t="inlineStr">
         <is>
@@ -43684,7 +43684,7 @@
         <v>45159</v>
       </c>
       <c r="C741" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D741" t="inlineStr">
         <is>

--- a/Översikt SÄFFLE.xlsx
+++ b/Översikt SÄFFLE.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y741"/>
+  <dimension ref="A1:Y742"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43598</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -667,7 +667,7 @@
         <v>43360</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -753,7 +753,7 @@
         <v>44452</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>44673</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -935,7 +935,7 @@
         <v>44861</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1021,7 +1021,7 @@
         <v>43382</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1106,7 +1106,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1191,7 +1191,7 @@
         <v>43461</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>43594</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1361,7 +1361,7 @@
         <v>43882</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1446,7 +1446,7 @@
         <v>44043</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         <v>44148</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1616,7 +1616,7 @@
         <v>44221</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1701,7 +1701,7 @@
         <v>44340</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1786,7 +1786,7 @@
         <v>44446</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1871,7 +1871,7 @@
         <v>44450</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1956,7 +1956,7 @@
         <v>44589</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2041,7 +2041,7 @@
         <v>44755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2131,7 +2131,7 @@
         <v>44762</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2216,7 +2216,7 @@
         <v>44805</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2306,7 +2306,7 @@
         <v>44813</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2391,7 +2391,7 @@
         <v>44886</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44894</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44938</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2651,7 +2651,7 @@
         <v>45016</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2736,7 +2736,7 @@
         <v>43319</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2793,7 +2793,7 @@
         <v>43319</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2850,7 +2850,7 @@
         <v>43325</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         <v>43327</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2964,7 +2964,7 @@
         <v>43327</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3021,7 +3021,7 @@
         <v>43332</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3078,7 +3078,7 @@
         <v>43340</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3135,7 +3135,7 @@
         <v>43341</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3192,7 +3192,7 @@
         <v>43346</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3249,7 +3249,7 @@
         <v>43348</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3306,7 +3306,7 @@
         <v>43349</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3363,7 +3363,7 @@
         <v>43350</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3420,7 +3420,7 @@
         <v>43350</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3477,7 +3477,7 @@
         <v>43353</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3534,7 +3534,7 @@
         <v>43353</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3591,7 +3591,7 @@
         <v>43353</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3648,7 +3648,7 @@
         <v>43360</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3705,7 +3705,7 @@
         <v>43361</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3762,7 +3762,7 @@
         <v>43362</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3819,7 +3819,7 @@
         <v>43363</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3876,7 +3876,7 @@
         <v>43369</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3933,7 +3933,7 @@
         <v>43370</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3990,7 +3990,7 @@
         <v>43374</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4047,7 +4047,7 @@
         <v>43374</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>43374</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4161,7 +4161,7 @@
         <v>43374</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4218,7 +4218,7 @@
         <v>43376</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4275,7 +4275,7 @@
         <v>43381</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         <v>43382</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4389,7 +4389,7 @@
         <v>43384</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4446,7 +4446,7 @@
         <v>43385</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4503,7 +4503,7 @@
         <v>43390</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4560,7 +4560,7 @@
         <v>43390</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4617,7 +4617,7 @@
         <v>43390</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4674,7 +4674,7 @@
         <v>43391</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4731,7 +4731,7 @@
         <v>43392</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4788,7 +4788,7 @@
         <v>43392</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4845,7 +4845,7 @@
         <v>43392</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4902,7 +4902,7 @@
         <v>43392</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4959,7 +4959,7 @@
         <v>43392</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5016,7 +5016,7 @@
         <v>43392</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5073,7 +5073,7 @@
         <v>43395</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5130,7 +5130,7 @@
         <v>43397</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5187,7 +5187,7 @@
         <v>43402</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5244,7 +5244,7 @@
         <v>43403</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5301,7 +5301,7 @@
         <v>43405</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5358,7 +5358,7 @@
         <v>43405</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5415,7 +5415,7 @@
         <v>43406</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5477,7 +5477,7 @@
         <v>43410</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5534,7 +5534,7 @@
         <v>43416</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5591,7 +5591,7 @@
         <v>43416</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5648,7 +5648,7 @@
         <v>43416</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5705,7 +5705,7 @@
         <v>43416</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5762,7 +5762,7 @@
         <v>43416</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5824,7 +5824,7 @@
         <v>43419</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>43419</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5938,7 +5938,7 @@
         <v>43419</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5995,7 +5995,7 @@
         <v>43430</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6052,7 +6052,7 @@
         <v>43431</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>43431</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>43431</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6228,7 +6228,7 @@
         <v>43431</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6290,7 +6290,7 @@
         <v>43433</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6347,7 +6347,7 @@
         <v>43434</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>43437</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6466,7 +6466,7 @@
         <v>43445</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6523,7 +6523,7 @@
         <v>43451</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6580,7 +6580,7 @@
         <v>43452</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6637,7 +6637,7 @@
         <v>43453</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6694,7 +6694,7 @@
         <v>43453</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6751,7 +6751,7 @@
         <v>43454</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>43454</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6865,7 +6865,7 @@
         <v>43454</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6922,7 +6922,7 @@
         <v>43454</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6979,7 +6979,7 @@
         <v>43461</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7036,7 +7036,7 @@
         <v>43461</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7093,7 +7093,7 @@
         <v>43462</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7150,7 +7150,7 @@
         <v>43467</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7207,7 +7207,7 @@
         <v>43467</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7264,7 +7264,7 @@
         <v>43472</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7321,7 +7321,7 @@
         <v>43472</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7378,7 +7378,7 @@
         <v>43475</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7435,7 +7435,7 @@
         <v>43475</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7492,7 +7492,7 @@
         <v>43476</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7549,7 +7549,7 @@
         <v>43479</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7606,7 +7606,7 @@
         <v>43479</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7663,7 +7663,7 @@
         <v>43483</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7720,7 +7720,7 @@
         <v>43483</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7777,7 +7777,7 @@
         <v>43485</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7834,7 +7834,7 @@
         <v>43486</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7891,7 +7891,7 @@
         <v>43487</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7948,7 +7948,7 @@
         <v>43488</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8005,7 +8005,7 @@
         <v>43488</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8062,7 +8062,7 @@
         <v>43490</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8119,7 +8119,7 @@
         <v>43493</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8176,7 +8176,7 @@
         <v>43494</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8233,7 +8233,7 @@
         <v>43494</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8290,7 +8290,7 @@
         <v>43494</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8352,7 +8352,7 @@
         <v>43494</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8409,7 +8409,7 @@
         <v>43494</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8466,7 +8466,7 @@
         <v>43502</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8523,7 +8523,7 @@
         <v>43502</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8580,7 +8580,7 @@
         <v>43507</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8637,7 +8637,7 @@
         <v>43507</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8694,7 +8694,7 @@
         <v>43507</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8751,7 +8751,7 @@
         <v>43515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8808,7 +8808,7 @@
         <v>43515</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8865,7 +8865,7 @@
         <v>43523</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8922,7 +8922,7 @@
         <v>43524</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8984,7 +8984,7 @@
         <v>43528</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -9041,7 +9041,7 @@
         <v>43532</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -9098,7 +9098,7 @@
         <v>43542</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -9155,7 +9155,7 @@
         <v>43542</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -9212,7 +9212,7 @@
         <v>43544</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>43544</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>43546</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>43547</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>43547</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9497,7 +9497,7 @@
         <v>43557</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9554,7 +9554,7 @@
         <v>43557</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9611,7 +9611,7 @@
         <v>43557</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9668,7 +9668,7 @@
         <v>43559</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>43560</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>43563</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>43563</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>43563</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>43566</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>43567</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>43570</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>43570</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>43578</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10243,7 +10243,7 @@
         <v>43581</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10300,7 +10300,7 @@
         <v>43584</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10357,7 +10357,7 @@
         <v>43584</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10414,7 +10414,7 @@
         <v>43584</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10471,7 +10471,7 @@
         <v>43584</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10528,7 +10528,7 @@
         <v>43591</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10585,7 +10585,7 @@
         <v>43594</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10642,7 +10642,7 @@
         <v>43594</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10699,7 +10699,7 @@
         <v>43594</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10756,7 +10756,7 @@
         <v>43594</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10813,7 +10813,7 @@
         <v>43594</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10870,7 +10870,7 @@
         <v>43594</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10927,7 +10927,7 @@
         <v>43594</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10984,7 +10984,7 @@
         <v>43594</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -11041,7 +11041,7 @@
         <v>43594</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -11098,7 +11098,7 @@
         <v>43594</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -11155,7 +11155,7 @@
         <v>43598</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11212,7 +11212,7 @@
         <v>43598</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11269,7 +11269,7 @@
         <v>43598</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11326,7 +11326,7 @@
         <v>43598</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11383,7 +11383,7 @@
         <v>43598</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11440,7 +11440,7 @@
         <v>43605</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11497,7 +11497,7 @@
         <v>43606</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11554,7 +11554,7 @@
         <v>43606</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11611,7 +11611,7 @@
         <v>43606</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11668,7 +11668,7 @@
         <v>43606</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11725,7 +11725,7 @@
         <v>43607</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11782,7 +11782,7 @@
         <v>43612</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11839,7 +11839,7 @@
         <v>43615</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11896,7 +11896,7 @@
         <v>43629</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11953,7 +11953,7 @@
         <v>43635</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -12010,7 +12010,7 @@
         <v>43636</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -12067,7 +12067,7 @@
         <v>43640</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -12124,7 +12124,7 @@
         <v>43644</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -12181,7 +12181,7 @@
         <v>43648</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12238,7 +12238,7 @@
         <v>43648</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12295,7 +12295,7 @@
         <v>43648</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12352,7 +12352,7 @@
         <v>43648</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12409,7 +12409,7 @@
         <v>43651</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12466,7 +12466,7 @@
         <v>43653</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12523,7 +12523,7 @@
         <v>43654</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12580,7 +12580,7 @@
         <v>43654</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12637,7 +12637,7 @@
         <v>43656</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12694,7 +12694,7 @@
         <v>43658</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12751,7 +12751,7 @@
         <v>43658</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12808,7 +12808,7 @@
         <v>43665</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12865,7 +12865,7 @@
         <v>43672</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12922,7 +12922,7 @@
         <v>43676</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12979,7 +12979,7 @@
         <v>43676</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -13036,7 +13036,7 @@
         <v>43684</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -13093,7 +13093,7 @@
         <v>43700</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -13150,7 +13150,7 @@
         <v>43706</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13207,7 +13207,7 @@
         <v>43706</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13264,7 +13264,7 @@
         <v>43713</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13321,7 +13321,7 @@
         <v>43720</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13378,7 +13378,7 @@
         <v>43725</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13435,7 +13435,7 @@
         <v>43727</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13492,7 +13492,7 @@
         <v>43732</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13549,7 +13549,7 @@
         <v>43733</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13606,7 +13606,7 @@
         <v>43738</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13663,7 +13663,7 @@
         <v>43738</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13720,7 +13720,7 @@
         <v>43740</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13777,7 +13777,7 @@
         <v>43741</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13834,7 +13834,7 @@
         <v>43741</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13891,7 +13891,7 @@
         <v>43742</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13948,7 +13948,7 @@
         <v>43742</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -14005,7 +14005,7 @@
         <v>43746</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -14062,7 +14062,7 @@
         <v>43749</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -14119,7 +14119,7 @@
         <v>43753</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -14176,7 +14176,7 @@
         <v>43754</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14233,7 +14233,7 @@
         <v>43766</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14290,7 +14290,7 @@
         <v>43768</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14347,7 +14347,7 @@
         <v>43770</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14404,7 +14404,7 @@
         <v>43773</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14461,7 +14461,7 @@
         <v>43774</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14518,7 +14518,7 @@
         <v>43785</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14575,7 +14575,7 @@
         <v>43788</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14632,7 +14632,7 @@
         <v>43789</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14689,7 +14689,7 @@
         <v>43794</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14746,7 +14746,7 @@
         <v>43803</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14803,7 +14803,7 @@
         <v>43805</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14860,7 +14860,7 @@
         <v>43808</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14917,7 +14917,7 @@
         <v>43808</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14974,7 +14974,7 @@
         <v>43808</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -15031,7 +15031,7 @@
         <v>43808</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -15088,7 +15088,7 @@
         <v>43808</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -15145,7 +15145,7 @@
         <v>43808</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15202,7 +15202,7 @@
         <v>43811</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>43815</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>43818</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>43835</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>43837</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>43837</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>43838</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>43838</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>43838</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>43840</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>43843</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>43843</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>43844</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>43845</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>43845</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>43846</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>43847</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16181,7 +16181,7 @@
         <v>43848</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16238,7 +16238,7 @@
         <v>43850</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16295,7 +16295,7 @@
         <v>43850</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16357,7 +16357,7 @@
         <v>43851</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16414,7 +16414,7 @@
         <v>43851</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16471,7 +16471,7 @@
         <v>43852</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16528,7 +16528,7 @@
         <v>43853</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16585,7 +16585,7 @@
         <v>43857</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16642,7 +16642,7 @@
         <v>43857</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>43861</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>43864</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16813,7 +16813,7 @@
         <v>43866</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16870,7 +16870,7 @@
         <v>43867</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16927,7 +16927,7 @@
         <v>43870</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16984,7 +16984,7 @@
         <v>43875</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -17041,7 +17041,7 @@
         <v>43878</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -17098,7 +17098,7 @@
         <v>43879</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -17160,7 +17160,7 @@
         <v>43881</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17217,7 +17217,7 @@
         <v>43883</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17274,7 +17274,7 @@
         <v>43883</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17331,7 +17331,7 @@
         <v>43888</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17388,7 +17388,7 @@
         <v>43889</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>43891</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17502,7 +17502,7 @@
         <v>43891</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17559,7 +17559,7 @@
         <v>43894</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17621,7 +17621,7 @@
         <v>43895</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17678,7 +17678,7 @@
         <v>43895</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17735,7 +17735,7 @@
         <v>43896</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17792,7 +17792,7 @@
         <v>43899</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17849,7 +17849,7 @@
         <v>43899</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17906,7 +17906,7 @@
         <v>43899</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17968,7 +17968,7 @@
         <v>43901</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -18025,7 +18025,7 @@
         <v>43901</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -18082,7 +18082,7 @@
         <v>43901</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -18139,7 +18139,7 @@
         <v>43902</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18196,7 +18196,7 @@
         <v>43902</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18253,7 +18253,7 @@
         <v>43905</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18310,7 +18310,7 @@
         <v>43906</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18367,7 +18367,7 @@
         <v>43907</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18424,7 +18424,7 @@
         <v>43907</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18481,7 +18481,7 @@
         <v>43910</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18538,7 +18538,7 @@
         <v>43913</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18595,7 +18595,7 @@
         <v>43913</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18652,7 +18652,7 @@
         <v>43913</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18709,7 +18709,7 @@
         <v>43913</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18766,7 +18766,7 @@
         <v>43913</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18823,7 +18823,7 @@
         <v>43913</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18880,7 +18880,7 @@
         <v>43913</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18937,7 +18937,7 @@
         <v>43916</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18994,7 +18994,7 @@
         <v>43920</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -19051,7 +19051,7 @@
         <v>43921</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -19113,7 +19113,7 @@
         <v>43922</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19170,7 +19170,7 @@
         <v>43923</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19227,7 +19227,7 @@
         <v>43923</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19284,7 +19284,7 @@
         <v>43945</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19346,7 +19346,7 @@
         <v>43945</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>43956</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>43968</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>43978</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>43978</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>43983</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>43997</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>43997</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44004</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44004</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19921,7 +19921,7 @@
         <v>44012</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19978,7 +19978,7 @@
         <v>44012</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -20035,7 +20035,7 @@
         <v>44014</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -20092,7 +20092,7 @@
         <v>44014</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -20149,7 +20149,7 @@
         <v>44026</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20206,7 +20206,7 @@
         <v>44032</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20263,7 +20263,7 @@
         <v>44040</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20320,7 +20320,7 @@
         <v>44050</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20377,7 +20377,7 @@
         <v>44050</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20434,7 +20434,7 @@
         <v>44050</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20491,7 +20491,7 @@
         <v>44053</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20548,7 +20548,7 @@
         <v>44053</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20605,7 +20605,7 @@
         <v>44057</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20662,7 +20662,7 @@
         <v>44061</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20719,7 +20719,7 @@
         <v>44064</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20776,7 +20776,7 @@
         <v>44067</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20833,7 +20833,7 @@
         <v>44069</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20890,7 +20890,7 @@
         <v>44070</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20947,7 +20947,7 @@
         <v>44076</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -21004,7 +21004,7 @@
         <v>44082</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -21061,7 +21061,7 @@
         <v>44084</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -21118,7 +21118,7 @@
         <v>44090</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21175,7 +21175,7 @@
         <v>44092</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21232,7 +21232,7 @@
         <v>44095</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21289,7 +21289,7 @@
         <v>44100</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21346,7 +21346,7 @@
         <v>44102</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21403,7 +21403,7 @@
         <v>44102</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21460,7 +21460,7 @@
         <v>44103</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21517,7 +21517,7 @@
         <v>44105</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21574,7 +21574,7 @@
         <v>44106</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21631,7 +21631,7 @@
         <v>44110</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21688,7 +21688,7 @@
         <v>44112</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21745,7 +21745,7 @@
         <v>44112</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21802,7 +21802,7 @@
         <v>44112</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21859,7 +21859,7 @@
         <v>44117</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21921,7 +21921,7 @@
         <v>44124</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21978,7 +21978,7 @@
         <v>44124</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -22035,7 +22035,7 @@
         <v>44124</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -22092,7 +22092,7 @@
         <v>44127</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22149,7 +22149,7 @@
         <v>44130</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22206,7 +22206,7 @@
         <v>44130</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22268,7 +22268,7 @@
         <v>44130</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22325,7 +22325,7 @@
         <v>44134</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22382,7 +22382,7 @@
         <v>44137</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22439,7 +22439,7 @@
         <v>44137</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22496,7 +22496,7 @@
         <v>44137</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22553,7 +22553,7 @@
         <v>44139</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22610,7 +22610,7 @@
         <v>44144</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22667,7 +22667,7 @@
         <v>44145</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22724,7 +22724,7 @@
         <v>44146</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22786,7 +22786,7 @@
         <v>44148</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22843,7 +22843,7 @@
         <v>44148</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22905,7 +22905,7 @@
         <v>44154</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22967,7 +22967,7 @@
         <v>44155</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -23024,7 +23024,7 @@
         <v>44161</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -23081,7 +23081,7 @@
         <v>44161</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -23138,7 +23138,7 @@
         <v>44161</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23195,7 +23195,7 @@
         <v>44168</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23252,7 +23252,7 @@
         <v>44175</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23309,7 +23309,7 @@
         <v>44183</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23366,7 +23366,7 @@
         <v>44187</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23428,7 +23428,7 @@
         <v>44189</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23485,7 +23485,7 @@
         <v>44193</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23547,7 +23547,7 @@
         <v>44193</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23609,7 +23609,7 @@
         <v>44193</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23671,7 +23671,7 @@
         <v>44204</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23728,7 +23728,7 @@
         <v>44206</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23785,7 +23785,7 @@
         <v>44207</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23842,7 +23842,7 @@
         <v>44209</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23899,7 +23899,7 @@
         <v>44211</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23956,7 +23956,7 @@
         <v>44216</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -24013,7 +24013,7 @@
         <v>44217</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -24070,7 +24070,7 @@
         <v>44218</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -24127,7 +24127,7 @@
         <v>44221</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24184,7 +24184,7 @@
         <v>44221</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24241,7 +24241,7 @@
         <v>44221</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24298,7 +24298,7 @@
         <v>44221</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24355,7 +24355,7 @@
         <v>44221</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24412,7 +24412,7 @@
         <v>44221</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24469,7 +24469,7 @@
         <v>44221</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24526,7 +24526,7 @@
         <v>44223</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24583,7 +24583,7 @@
         <v>44223</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24640,7 +24640,7 @@
         <v>44224</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24697,7 +24697,7 @@
         <v>44229</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24754,7 +24754,7 @@
         <v>44229</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24811,7 +24811,7 @@
         <v>44230</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24868,7 +24868,7 @@
         <v>44231</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24930,7 +24930,7 @@
         <v>44235</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24987,7 +24987,7 @@
         <v>44238</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -25044,7 +25044,7 @@
         <v>44242</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -25101,7 +25101,7 @@
         <v>44246</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -25158,7 +25158,7 @@
         <v>44247</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25215,7 +25215,7 @@
         <v>44251</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25272,7 +25272,7 @@
         <v>44258</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25329,7 +25329,7 @@
         <v>44258</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25386,7 +25386,7 @@
         <v>44258</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25443,7 +25443,7 @@
         <v>44258</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25500,7 +25500,7 @@
         <v>44260</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25557,7 +25557,7 @@
         <v>44263</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25614,7 +25614,7 @@
         <v>44264</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25671,7 +25671,7 @@
         <v>44270</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25728,7 +25728,7 @@
         <v>44271</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25785,7 +25785,7 @@
         <v>44280</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25847,7 +25847,7 @@
         <v>44285</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25904,7 +25904,7 @@
         <v>44287</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25961,7 +25961,7 @@
         <v>44294</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -26018,7 +26018,7 @@
         <v>44296</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -26075,7 +26075,7 @@
         <v>44299</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -26132,7 +26132,7 @@
         <v>44316</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26194,7 +26194,7 @@
         <v>44319</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26251,7 +26251,7 @@
         <v>44321</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>44321</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26375,7 +26375,7 @@
         <v>44322</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26432,7 +26432,7 @@
         <v>44322</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26489,7 +26489,7 @@
         <v>44333</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26546,7 +26546,7 @@
         <v>44334</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26603,7 +26603,7 @@
         <v>44334</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26660,7 +26660,7 @@
         <v>44340</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26717,7 +26717,7 @@
         <v>44343</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26774,7 +26774,7 @@
         <v>44344</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26831,7 +26831,7 @@
         <v>44351</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26888,7 +26888,7 @@
         <v>44354</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26945,7 +26945,7 @@
         <v>44358</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>44362</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -27059,7 +27059,7 @@
         <v>44362</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -27116,7 +27116,7 @@
         <v>44368</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27173,7 +27173,7 @@
         <v>44368</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27230,7 +27230,7 @@
         <v>44370</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27287,7 +27287,7 @@
         <v>44378</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27344,7 +27344,7 @@
         <v>44378</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27401,7 +27401,7 @@
         <v>44378</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27458,7 +27458,7 @@
         <v>44378</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27515,7 +27515,7 @@
         <v>44385</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27572,7 +27572,7 @@
         <v>44385</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27629,7 +27629,7 @@
         <v>44389</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27686,7 +27686,7 @@
         <v>44389</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27743,7 +27743,7 @@
         <v>44389</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27800,7 +27800,7 @@
         <v>44392</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27857,7 +27857,7 @@
         <v>44392</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27914,7 +27914,7 @@
         <v>44392</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27971,7 +27971,7 @@
         <v>44392</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -28028,7 +28028,7 @@
         <v>44392</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -28085,7 +28085,7 @@
         <v>44392</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -28142,7 +28142,7 @@
         <v>44392</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28199,7 +28199,7 @@
         <v>44392</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28256,7 +28256,7 @@
         <v>44400</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28313,7 +28313,7 @@
         <v>44403</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28370,7 +28370,7 @@
         <v>44412</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28427,7 +28427,7 @@
         <v>44418</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28489,7 +28489,7 @@
         <v>44419</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28546,7 +28546,7 @@
         <v>44421</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28603,7 +28603,7 @@
         <v>44423</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28660,7 +28660,7 @@
         <v>44424</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28717,7 +28717,7 @@
         <v>44424</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28774,7 +28774,7 @@
         <v>44425</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28831,7 +28831,7 @@
         <v>44431</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28888,7 +28888,7 @@
         <v>44435</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28945,7 +28945,7 @@
         <v>44435</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -29007,7 +29007,7 @@
         <v>44435</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -29064,7 +29064,7 @@
         <v>44438</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -29121,7 +29121,7 @@
         <v>44439</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29178,7 +29178,7 @@
         <v>44439</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29235,7 +29235,7 @@
         <v>44440</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29292,7 +29292,7 @@
         <v>44445</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29349,7 +29349,7 @@
         <v>44446</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29406,7 +29406,7 @@
         <v>44448</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29463,7 +29463,7 @@
         <v>44449</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29520,7 +29520,7 @@
         <v>44449</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29577,7 +29577,7 @@
         <v>44450</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29634,7 +29634,7 @@
         <v>44453</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29691,7 +29691,7 @@
         <v>44454</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29748,7 +29748,7 @@
         <v>44456</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29805,7 +29805,7 @@
         <v>44462</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29862,7 +29862,7 @@
         <v>44463</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29919,7 +29919,7 @@
         <v>44466</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29976,7 +29976,7 @@
         <v>44467</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -30033,7 +30033,7 @@
         <v>44467</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -30090,7 +30090,7 @@
         <v>44467</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -30147,7 +30147,7 @@
         <v>44468</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30204,7 +30204,7 @@
         <v>44473</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30261,7 +30261,7 @@
         <v>44473</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>44475</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>44480</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30437,7 +30437,7 @@
         <v>44487</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30494,7 +30494,7 @@
         <v>44487</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30551,7 +30551,7 @@
         <v>44487</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -30608,7 +30608,7 @@
         <v>44488</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -30665,7 +30665,7 @@
         <v>44488</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -30722,7 +30722,7 @@
         <v>44489</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -30779,7 +30779,7 @@
         <v>44490</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -30836,7 +30836,7 @@
         <v>44494</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -30893,7 +30893,7 @@
         <v>44501</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -30950,7 +30950,7 @@
         <v>44505</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>45190</v